--- a/staffing_model.xlsx
+++ b/staffing_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.gilpin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CD46FE-8F51-4004-A1D2-9440D0F1B35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B13B5-BD88-4E3F-96CF-7BA7C0D4F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{957C3CBE-EA66-4BE3-80D0-777A858AB005}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{957C3CBE-EA66-4BE3-80D0-777A858AB005}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -37,83 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <r>
-      <t xml:space="preserve">Leave weeks: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Weeks/year: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Leave factor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>(52 - 10) / 52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.807692</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FY1</t>
   </si>
@@ -140,9 +64,6 @@
   </si>
   <si>
     <t>LIMT</t>
-  </si>
-  <si>
-    <t>On call factor</t>
   </si>
   <si>
     <t>staff_group</t>
@@ -191,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,11 +127,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -578,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0132B61-C2C7-4A15-BD39-55DBEA15B1EF}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -598,38 +513,38 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -644,7 +559,6 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G2" s="1">
@@ -659,9 +573,9 @@
         <v>3.3923063999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -676,7 +590,6 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G3" s="1">
@@ -691,9 +604,9 @@
         <v>0.48461519999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -708,7 +621,6 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G4" s="1">
@@ -723,9 +635,9 @@
         <v>1.6153839999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -740,7 +652,6 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G5" s="1">
@@ -755,9 +666,9 @@
         <v>3.2307679999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -772,7 +683,6 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G6" s="1">
@@ -787,9 +697,9 @@
         <v>0.96923039999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -804,7 +714,6 @@
         <v>0.8</v>
       </c>
       <c r="F7" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G7" s="1">
@@ -819,9 +728,9 @@
         <v>1.2923072</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -836,7 +745,6 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G8" s="1">
@@ -851,9 +759,9 @@
         <v>0.96923039999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -868,7 +776,6 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G9" s="1">
@@ -883,9 +790,9 @@
         <v>0.96923039999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -900,7 +807,6 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f>$A$35</f>
         <v>0.80769199999999997</v>
       </c>
       <c r="G10" s="1">
@@ -915,64 +821,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="L17" s="1">
-        <f>SUM(B17:J17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="I30" s="1">
-        <f>SUM(I2:I10)</f>
-        <v>12.923072000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
-        <v>0.80769199999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -987,44 +858,44 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.4</v>
       </c>
     </row>
